--- a/tables/table.xlsx
+++ b/tables/table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gian/Desktop/StackExchange-Badge-IDs/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gian/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB0216C-68AC-2D48-A76E-7E26C2FD11D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89A243E6-B5A7-5D49-81AE-B2B8538771C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
   <si>
     <t>badge</t>
   </si>
@@ -1339,7 +1339,19 @@
     <t>informed</t>
   </si>
   <si>
+    <t>not a robot</t>
+  </si>
+  <si>
     <t>analytical</t>
+  </si>
+  <si>
+    <t>documentation beta</t>
+  </si>
+  <si>
+    <t>documentation pioneer</t>
+  </si>
+  <si>
+    <t>documentation user</t>
   </si>
   <si>
     <t>reversal</t>
@@ -1352,9 +1364,6 @@
   </si>
   <si>
     <t>api evangelist</t>
-  </si>
-  <si>
-    <t>not a robot</t>
   </si>
 </sst>
 </file>
@@ -2195,7 +2204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:MO93"/>
+  <dimension ref="A1:MO96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -67991,7 +68000,7 @@
         <v>414</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1478</v>
       </c>
       <c r="C63">
         <v>168</v>
@@ -69052,7 +69061,7 @@
         <v>415</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>2279</v>
       </c>
       <c r="C64">
         <v>216</v>
@@ -70113,7 +70122,7 @@
         <v>416</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C65">
         <v>37</v>
@@ -71174,7 +71183,7 @@
         <v>417</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -72235,7 +72244,7 @@
         <v>418</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C67">
         <v>12</v>
@@ -73296,7 +73305,7 @@
         <v>419</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="C68">
         <v>82</v>
@@ -74357,7 +74366,7 @@
         <v>420</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="C69">
         <v>75</v>
@@ -75418,7 +75427,7 @@
         <v>421</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1287</v>
       </c>
       <c r="C70">
         <v>155</v>
@@ -76479,7 +76488,7 @@
         <v>422</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1286</v>
       </c>
       <c r="C71">
         <v>154</v>
@@ -77540,7 +77549,7 @@
         <v>423</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -78601,7 +78610,7 @@
         <v>424</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C73">
         <v>38</v>
@@ -79662,7 +79671,7 @@
         <v>425</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1276</v>
       </c>
       <c r="C74">
         <v>153</v>
@@ -80723,7 +80732,7 @@
         <v>426</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="C75">
         <v>128</v>
@@ -81784,7 +81793,7 @@
         <v>427</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="C76">
         <v>127</v>
@@ -82845,7 +82854,7 @@
         <v>428</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -83906,7 +83915,7 @@
         <v>429</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="C78">
         <v>152</v>
@@ -84967,7 +84976,7 @@
         <v>430</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="C79">
         <v>89</v>
@@ -86028,7 +86037,7 @@
         <v>431</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1656</v>
       </c>
       <c r="C80">
         <v>177</v>
@@ -87089,7 +87098,7 @@
         <v>432</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C81">
         <v>11</v>
@@ -88150,7 +88159,7 @@
         <v>433</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1108</v>
       </c>
       <c r="C82">
         <v>150</v>
@@ -89211,7 +89220,7 @@
         <v>434</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="C83">
         <v>90</v>
@@ -90272,7 +90281,7 @@
         <v>435</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="C84">
         <v>91</v>
@@ -91333,7 +91342,7 @@
         <v>436</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="C85">
         <v>92</v>
@@ -92394,7 +92403,7 @@
         <v>437</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>6644</v>
       </c>
       <c r="C86">
         <v>415</v>
@@ -93455,7 +93464,7 @@
         <v>438</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="C87">
         <v>227</v>
@@ -94516,1060 +94525,1060 @@
         <v>439</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>6381</v>
       </c>
       <c r="C88">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="O88">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="P88">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="S88">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="T88">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="U88">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="V88">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="X88">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="Y88">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="Z88">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AB88">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="AD88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AE88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AF88">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AG88">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AH88">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AI88">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AJ88">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AK88">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AL88">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AM88">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AN88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AO88">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AP88">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AQ88">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AR88">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AS88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AT88">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="AU88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AV88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AW88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AX88">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AY88">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AZ88">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="BA88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BB88">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="BC88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BD88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BE88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BF88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BG88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BH88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BI88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BJ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BK88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BL88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BM88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BN88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BO88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BP88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BQ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BR88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BS88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BT88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BU88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BV88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BW88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BX88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BY88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BZ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CA88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CB88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CC88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CD88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CE88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CF88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CG88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CH88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CI88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CJ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CK88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CL88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CM88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CN88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CO88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CP88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CQ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CR88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CS88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CT88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CU88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CV88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CW88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CX88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="CY88">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="CZ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DA88">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="DB88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DC88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DD88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DE88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DF88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DG88">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="DH88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DI88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DJ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DK88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DL88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DM88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DN88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DO88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DP88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DQ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DR88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DS88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DT88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DU88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DV88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DW88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DX88">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="DY88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DZ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EA88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EB88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EC88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="ED88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EE88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EF88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EG88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EH88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EI88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EJ88">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="EK88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EL88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EM88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EN88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EO88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EP88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EQ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="ER88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="ES88">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="ET88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EU88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EV88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EW88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EX88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EY88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="EZ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FA88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FB88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FC88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FD88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FE88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FF88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FG88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FH88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FI88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FJ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FK88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FL88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FM88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FN88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FO88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FP88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FQ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FR88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FS88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FT88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FU88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FV88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FW88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="FX88">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="FY88">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="FZ88">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="GA88">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="GB88">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="GC88">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="GD88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="GE88">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="GF88">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="GG88">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="GH88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="GI88">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="GJ88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="GK88">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="GL88">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="GM88">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="GN88">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="GO88">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="GP88">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="GQ88">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="GR88">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="GS88">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="GT88">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="GU88">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="GV88">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="GW88">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="GX88">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="GY88">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="GZ88">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="HA88">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="HB88">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="HC88">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="HD88">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="HE88">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="HF88">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="HG88">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="HH88">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="HI88">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="HJ88">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="HK88">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="HL88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="HM88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="HN88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="HO88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="HP88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="HQ88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="HR88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="HS88">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="HT88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="HU88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="HV88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="HW88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="HX88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="HY88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="HZ88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="IA88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="IB88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="IC88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="ID88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="IE88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="IF88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="IG88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="IH88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="II88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="IJ88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="IK88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="IL88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="IM88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="IN88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="IO88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="IP88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="IQ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="IR88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="IS88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="IT88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="IU88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="IV88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="IW88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="IX88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="IY88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="IZ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JA88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JB88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JC88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JD88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JE88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JF88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JG88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JH88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JI88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JJ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JK88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JL88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JM88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JN88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JO88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JP88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JQ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JR88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JS88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JT88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JU88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JV88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JW88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JX88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JY88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="JZ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KA88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KB88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KC88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KD88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KE88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KF88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KG88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KH88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KI88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KJ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KK88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KL88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KM88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KN88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KO88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KP88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KQ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KR88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KS88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KT88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KU88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KV88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KW88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KX88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KY88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="KZ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LA88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LB88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LC88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LD88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LE88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LF88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LG88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LH88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LI88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LJ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LK88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LL88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LM88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LN88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LO88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LP88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LQ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LR88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LS88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LT88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LU88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LV88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LW88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LX88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LY88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="LZ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="MA88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="MB88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="MC88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="MD88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="ME88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="MF88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="MG88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="MH88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="MI88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="MJ88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="MK88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="ML88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="MM88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="MN88">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="MO88">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:353" x14ac:dyDescent="0.2">
@@ -95577,1060 +95586,1060 @@
         <v>440</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1306</v>
       </c>
       <c r="C89">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="D89">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="E89">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="F89">
+        <v>209</v>
+      </c>
+      <c r="G89">
+        <v>225</v>
+      </c>
+      <c r="H89">
+        <v>90</v>
+      </c>
+      <c r="I89">
+        <v>81</v>
+      </c>
+      <c r="J89">
+        <v>83</v>
+      </c>
+      <c r="K89">
+        <v>86</v>
+      </c>
+      <c r="L89">
+        <v>88</v>
+      </c>
+      <c r="M89">
+        <v>133</v>
+      </c>
+      <c r="N89">
+        <v>79</v>
+      </c>
+      <c r="O89">
+        <v>85</v>
+      </c>
+      <c r="P89">
+        <v>109</v>
+      </c>
+      <c r="Q89">
+        <v>88</v>
+      </c>
+      <c r="R89">
+        <v>78</v>
+      </c>
+      <c r="S89">
+        <v>104</v>
+      </c>
+      <c r="T89">
+        <v>96</v>
+      </c>
+      <c r="U89">
+        <v>73</v>
+      </c>
+      <c r="V89">
+        <v>90</v>
+      </c>
+      <c r="W89">
+        <v>77</v>
+      </c>
+      <c r="X89">
+        <v>79</v>
+      </c>
+      <c r="Y89">
+        <v>74</v>
+      </c>
+      <c r="Z89">
+        <v>79</v>
+      </c>
+      <c r="AA89">
+        <v>72</v>
+      </c>
+      <c r="AB89">
         <v>95</v>
       </c>
-      <c r="G89">
-        <v>95</v>
-      </c>
-      <c r="H89">
-        <v>58</v>
-      </c>
-      <c r="I89">
-        <v>57</v>
-      </c>
-      <c r="J89">
-        <v>57</v>
-      </c>
-      <c r="K89">
-        <v>57</v>
-      </c>
-      <c r="L89">
-        <v>57</v>
-      </c>
-      <c r="M89">
-        <v>57</v>
-      </c>
-      <c r="N89">
-        <v>57</v>
-      </c>
-      <c r="O89">
-        <v>57</v>
-      </c>
-      <c r="P89">
-        <v>55</v>
-      </c>
-      <c r="Q89">
-        <v>55</v>
-      </c>
-      <c r="R89">
-        <v>50</v>
-      </c>
-      <c r="S89">
-        <v>50</v>
-      </c>
-      <c r="T89">
-        <v>41</v>
-      </c>
-      <c r="U89">
-        <v>50</v>
-      </c>
-      <c r="V89">
-        <v>50</v>
-      </c>
-      <c r="W89">
-        <v>50</v>
-      </c>
-      <c r="X89">
-        <v>50</v>
-      </c>
-      <c r="Y89">
-        <v>50</v>
-      </c>
-      <c r="Z89">
-        <v>50</v>
-      </c>
-      <c r="AA89">
-        <v>50</v>
-      </c>
-      <c r="AB89">
-        <v>50</v>
-      </c>
       <c r="AC89">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="AD89">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AE89">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AF89">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="AG89">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="AH89">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI89">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="AJ89">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="AK89">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="AL89">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AM89">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="AN89">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AO89">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="AP89">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="AQ89">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="AR89">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="AS89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AT89">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="AU89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AV89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AW89">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AX89">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="AY89">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="AZ89">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="BA89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BB89">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="BC89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BD89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BE89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BF89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BG89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BH89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BI89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BJ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BK89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BL89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BM89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BN89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BO89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BP89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BQ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BR89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BS89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BT89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BU89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BV89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BW89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BX89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BY89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BZ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CA89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CB89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CC89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CD89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CE89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CF89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CG89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CH89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CI89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CJ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CK89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CL89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CM89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CN89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CO89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CP89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CQ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CR89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CS89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CT89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CU89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CV89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CW89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CX89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CY89">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="CZ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DA89">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="DB89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DC89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DD89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DE89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DF89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DG89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DH89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DI89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DJ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DK89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DL89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DM89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DN89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DO89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DP89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DQ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DR89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DS89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DT89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DU89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DV89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DW89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DX89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DY89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="DZ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EA89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EB89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EC89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="ED89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EE89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EF89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EG89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EH89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EI89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EJ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EK89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EL89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EM89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EN89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EO89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EP89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EQ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="ER89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="ES89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="ET89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EU89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EV89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EW89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EX89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EY89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="EZ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FA89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FB89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FC89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FD89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FE89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FF89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FG89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FH89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FI89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FJ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FK89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FL89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FM89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FN89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FO89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FP89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FQ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FR89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FS89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FT89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FU89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FV89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FW89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="FX89">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="FY89">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="FZ89">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="GA89">
-        <v>95</v>
+        <v>208</v>
       </c>
       <c r="GB89">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="GC89">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="GD89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="GE89">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="GF89">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="GG89">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="GH89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="GI89">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="GJ89">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="GK89">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="GL89">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="GM89">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="GN89">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="GO89">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="GP89">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="GQ89">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="GR89">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="GS89">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="GT89">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="GU89">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="GV89">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="GW89">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="GX89">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="GY89">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="GZ89">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="HA89">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="HB89">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="HC89">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="HD89">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="HE89">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="HF89">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="HG89">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="HH89">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="HI89">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="HJ89">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="HK89">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="HL89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="HM89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="HN89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="HO89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="HP89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="HQ89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="HR89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="HS89">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="HT89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="HU89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="HV89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="HW89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="HX89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="HY89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="HZ89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="IA89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="IB89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="IC89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="ID89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="IE89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="IF89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="IG89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="IH89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="II89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="IJ89">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="IK89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="IL89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="IM89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="IN89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="IO89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="IP89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="IQ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="IR89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="IS89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="IT89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="IU89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="IV89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="IW89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="IX89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="IY89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="IZ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JA89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JB89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JC89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JD89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JE89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JF89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JG89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JH89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JI89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JJ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JK89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JL89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JM89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JN89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JO89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JP89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JQ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JR89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JS89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JT89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JU89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JV89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JW89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JX89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JY89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="JZ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KA89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KB89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KC89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KD89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KE89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KF89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KG89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KH89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KI89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KJ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KK89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KL89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KM89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KN89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KO89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KP89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KQ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KR89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KS89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KT89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KU89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KV89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KW89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KX89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KY89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="KZ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LA89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LB89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LC89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LD89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LE89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LF89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LG89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LH89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LI89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LJ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LK89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LL89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LM89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LN89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LO89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LP89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LQ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LR89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LS89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LT89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LU89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LV89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LW89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LX89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LY89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="LZ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="MA89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="MB89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="MC89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="MD89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="ME89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="MF89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="MG89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="MH89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="MI89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="MJ89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="MK89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="ML89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="MM89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="MN89">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="MO89">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:353" x14ac:dyDescent="0.2">
@@ -96638,1060 +96647,1060 @@
         <v>441</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>6157</v>
       </c>
       <c r="C90">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="S90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="T90">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="U90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="V90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="W90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AB90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AD90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AF90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AG90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AH90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AJ90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AK90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AM90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AN90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AO90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AP90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AQ90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AR90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AT90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AU90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AV90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AW90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AX90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AY90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AZ90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BA90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BB90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BC90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BD90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BE90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BF90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BG90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BH90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BI90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BJ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BK90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BL90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BM90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BN90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BO90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BP90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BQ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BR90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BS90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BT90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BU90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BV90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BW90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BX90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BY90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BZ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CA90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CB90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CC90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CD90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CE90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CF90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CG90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CH90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CI90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CJ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CK90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CL90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CM90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CN90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CO90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CP90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CQ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CR90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CS90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CT90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CU90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CV90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CW90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CX90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CY90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="CZ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DA90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="DB90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DC90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DD90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DE90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DF90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DG90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DH90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DI90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DJ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DK90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DL90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DM90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DN90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DO90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DP90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DQ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DR90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DS90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DT90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DU90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DV90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DW90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DX90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DY90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DZ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EA90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EB90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EC90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="ED90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EE90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EF90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EG90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EH90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EI90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EJ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EK90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EL90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EM90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EN90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EO90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EP90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EQ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="ER90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="ES90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="ET90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EU90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EV90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EW90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EX90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EY90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EZ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FA90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FB90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FC90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FD90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FE90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FF90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FG90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FH90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FI90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FJ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FK90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FL90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FM90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FN90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FO90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FP90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FQ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FR90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FS90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FT90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FU90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FV90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FW90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FX90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FY90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FZ90">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="GA90">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="GB90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="GC90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="GD90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="GE90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="GF90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="GG90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="GH90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="GI90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="GJ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="GK90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="GL90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="GM90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="GN90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="GO90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="GP90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="GQ90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="GR90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="GS90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="GT90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="GU90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="GV90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="GW90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="GX90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="GY90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="GZ90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="HA90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="HB90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="HC90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="HD90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="HE90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="HF90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="HG90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="HH90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="HI90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="HJ90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="HK90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HL90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HM90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HN90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HO90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HP90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HQ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HR90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HS90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HT90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HU90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HV90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HW90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HX90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HY90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="HZ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IA90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IB90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IC90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="ID90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IE90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IF90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IG90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IH90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="II90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IJ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IK90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IL90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IM90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IN90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IO90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IP90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IQ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IR90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IS90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IT90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IU90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IV90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IW90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IX90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IY90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IZ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JA90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JB90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JC90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JD90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JE90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JF90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JG90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JH90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JI90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JJ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JK90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JL90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JM90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JN90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JO90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JP90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JQ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JR90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JS90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JT90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JU90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JV90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JW90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JX90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JY90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JZ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KA90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KB90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KC90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KD90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KE90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KF90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KG90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KH90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KI90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KJ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KK90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KL90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KM90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KN90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KO90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KP90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KQ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KR90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KS90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KT90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KU90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KV90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KW90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KX90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KY90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KZ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LA90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LB90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LC90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LD90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LE90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LF90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LG90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LH90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LI90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LJ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LK90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LL90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LM90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LN90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LO90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LP90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LQ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LR90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LS90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LT90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LU90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LV90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LW90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LX90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LY90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="LZ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="MA90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="MB90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="MC90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="MD90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="ME90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="MF90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="MG90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="MH90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="MI90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="MJ90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="MK90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="ML90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="MM90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="MN90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="MO90">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:353" x14ac:dyDescent="0.2">
@@ -97699,7 +97708,7 @@
         <v>442</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>6158</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -97753,7 +97762,7 @@
         <v>0</v>
       </c>
       <c r="T91">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="U91">
         <v>0</v>
@@ -98760,7 +98769,7 @@
         <v>443</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>7358</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -98814,7 +98823,7 @@
         <v>0</v>
       </c>
       <c r="T92">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U92">
         <v>0</v>
@@ -99821,1059 +99830,4242 @@
         <v>444</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="R93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T93">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="U93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AD93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AE93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AH93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AN93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AP93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AQ93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AR93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AS93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AT93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AU93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AV93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AW93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AX93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AY93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AZ93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BA93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BB93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BC93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BD93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BE93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BF93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BG93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BH93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BI93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BJ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BK93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BL93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BM93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BN93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BO93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BP93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BQ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BR93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BS93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BT93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BU93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BV93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BW93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BX93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BY93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BZ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CA93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CB93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CC93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CD93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CE93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CF93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CG93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CH93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CI93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CJ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CK93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CL93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CM93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CN93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CO93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CP93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CQ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CR93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CS93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CT93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CU93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CV93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CW93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CX93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CY93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CZ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DA93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DB93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DC93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DD93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DE93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DF93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DG93">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="DH93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DI93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DJ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DK93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DL93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DM93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DN93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DO93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DP93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DQ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DR93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DS93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DT93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DU93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DV93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DW93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DX93">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="DY93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="DZ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EA93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EB93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EC93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="ED93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EE93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EF93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EG93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EH93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EI93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EJ93">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="EK93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EL93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EM93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EN93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EO93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EP93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EQ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="ER93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="ES93">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="ET93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EU93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EV93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EW93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EX93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EY93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="EZ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FA93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FB93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FC93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FD93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FE93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FF93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FG93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FH93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FI93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FJ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FK93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FL93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FM93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FN93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FO93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FP93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FQ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FR93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FS93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FT93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FU93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FV93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FW93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FX93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FY93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FZ93">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="GA93">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="GB93">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="GC93">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="GD93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="GE93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="GF93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="GG93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="GH93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="GI93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="GJ93">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="GK93">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="GL93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="GM93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="GN93">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="GO93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="GP93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="GQ93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="GR93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="GS93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="GT93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="GU93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="GV93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="GW93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="GX93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="GY93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="GZ93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="HA93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="HB93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="HC93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="HD93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="HE93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="HF93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="HG93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="HH93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="HI93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="HJ93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="HK93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HL93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HM93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HN93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HO93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HP93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HQ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HR93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HS93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HT93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HU93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HV93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HW93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HX93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HY93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HZ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IA93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IB93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IC93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="ID93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IE93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IF93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IG93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IH93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="II93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IJ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IK93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IL93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IM93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IN93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IO93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IP93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IQ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IR93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IS93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IT93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IU93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IV93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IW93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IX93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IY93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="IZ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JA93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JB93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JC93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JD93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JE93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JF93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JG93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JH93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JI93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JJ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JK93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JL93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JM93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JN93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JO93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JP93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JQ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JR93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JS93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JT93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JU93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JV93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JW93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JX93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JY93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="JZ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KA93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KB93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KC93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KD93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KE93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KF93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KG93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KH93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KI93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KJ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KK93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KL93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KM93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KN93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KO93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KP93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KQ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KR93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KS93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KT93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KU93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KV93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KW93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KX93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KY93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="KZ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LA93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LB93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LC93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LD93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LE93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LF93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LG93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LH93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LI93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LJ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LK93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LL93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LM93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LN93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LO93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LP93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LQ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LR93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LS93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LT93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LU93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LV93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LW93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LX93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LY93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="LZ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="MA93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="MB93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="MC93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="MD93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="ME93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="MF93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="MG93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="MH93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="MI93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="MJ93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="MK93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="ML93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="MM93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="MN93">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="MO93">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:353" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>445</v>
+      </c>
+      <c r="B94">
+        <v>63</v>
+      </c>
+      <c r="C94">
+        <v>63</v>
+      </c>
+      <c r="D94">
+        <v>38</v>
+      </c>
+      <c r="E94">
+        <v>38</v>
+      </c>
+      <c r="F94">
+        <v>63</v>
+      </c>
+      <c r="G94">
+        <v>63</v>
+      </c>
+      <c r="H94">
+        <v>40</v>
+      </c>
+      <c r="I94">
+        <v>40</v>
+      </c>
+      <c r="J94">
+        <v>40</v>
+      </c>
+      <c r="K94">
+        <v>40</v>
+      </c>
+      <c r="L94">
+        <v>40</v>
+      </c>
+      <c r="M94">
+        <v>40</v>
+      </c>
+      <c r="N94">
+        <v>40</v>
+      </c>
+      <c r="O94">
+        <v>40</v>
+      </c>
+      <c r="P94">
+        <v>40</v>
+      </c>
+      <c r="Q94">
+        <v>40</v>
+      </c>
+      <c r="R94">
+        <v>21</v>
+      </c>
+      <c r="S94">
+        <v>21</v>
+      </c>
+      <c r="T94">
+        <v>38</v>
+      </c>
+      <c r="U94">
+        <v>21</v>
+      </c>
+      <c r="V94">
+        <v>21</v>
+      </c>
+      <c r="W94">
+        <v>21</v>
+      </c>
+      <c r="X94">
+        <v>21</v>
+      </c>
+      <c r="Y94">
+        <v>21</v>
+      </c>
+      <c r="Z94">
+        <v>21</v>
+      </c>
+      <c r="AA94">
+        <v>21</v>
+      </c>
+      <c r="AB94">
+        <v>21</v>
+      </c>
+      <c r="AC94">
+        <v>21</v>
+      </c>
+      <c r="AD94">
+        <v>21</v>
+      </c>
+      <c r="AE94">
+        <v>21</v>
+      </c>
+      <c r="AF94">
+        <v>21</v>
+      </c>
+      <c r="AG94">
+        <v>21</v>
+      </c>
+      <c r="AH94">
+        <v>21</v>
+      </c>
+      <c r="AI94">
+        <v>21</v>
+      </c>
+      <c r="AJ94">
+        <v>21</v>
+      </c>
+      <c r="AK94">
+        <v>21</v>
+      </c>
+      <c r="AL94">
+        <v>21</v>
+      </c>
+      <c r="AM94">
+        <v>21</v>
+      </c>
+      <c r="AN94">
+        <v>21</v>
+      </c>
+      <c r="AO94">
+        <v>21</v>
+      </c>
+      <c r="AP94">
+        <v>21</v>
+      </c>
+      <c r="AQ94">
+        <v>21</v>
+      </c>
+      <c r="AR94">
+        <v>40</v>
+      </c>
+      <c r="AS94">
+        <v>40</v>
+      </c>
+      <c r="AT94">
+        <v>40</v>
+      </c>
+      <c r="AU94">
+        <v>40</v>
+      </c>
+      <c r="AV94">
+        <v>40</v>
+      </c>
+      <c r="AW94">
+        <v>21</v>
+      </c>
+      <c r="AX94">
+        <v>40</v>
+      </c>
+      <c r="AY94">
+        <v>40</v>
+      </c>
+      <c r="AZ94">
+        <v>21</v>
+      </c>
+      <c r="BA94">
+        <v>40</v>
+      </c>
+      <c r="BB94">
+        <v>40</v>
+      </c>
+      <c r="BC94">
+        <v>40</v>
+      </c>
+      <c r="BD94">
+        <v>40</v>
+      </c>
+      <c r="BE94">
+        <v>40</v>
+      </c>
+      <c r="BF94">
+        <v>40</v>
+      </c>
+      <c r="BG94">
+        <v>40</v>
+      </c>
+      <c r="BH94">
+        <v>40</v>
+      </c>
+      <c r="BI94">
+        <v>40</v>
+      </c>
+      <c r="BJ94">
+        <v>40</v>
+      </c>
+      <c r="BK94">
+        <v>40</v>
+      </c>
+      <c r="BL94">
+        <v>40</v>
+      </c>
+      <c r="BM94">
+        <v>40</v>
+      </c>
+      <c r="BN94">
+        <v>40</v>
+      </c>
+      <c r="BO94">
+        <v>40</v>
+      </c>
+      <c r="BP94">
+        <v>40</v>
+      </c>
+      <c r="BQ94">
+        <v>40</v>
+      </c>
+      <c r="BR94">
+        <v>40</v>
+      </c>
+      <c r="BS94">
+        <v>40</v>
+      </c>
+      <c r="BT94">
+        <v>40</v>
+      </c>
+      <c r="BU94">
+        <v>40</v>
+      </c>
+      <c r="BV94">
+        <v>40</v>
+      </c>
+      <c r="BW94">
+        <v>40</v>
+      </c>
+      <c r="BX94">
+        <v>40</v>
+      </c>
+      <c r="BY94">
+        <v>40</v>
+      </c>
+      <c r="BZ94">
+        <v>40</v>
+      </c>
+      <c r="CA94">
+        <v>40</v>
+      </c>
+      <c r="CB94">
+        <v>40</v>
+      </c>
+      <c r="CC94">
+        <v>40</v>
+      </c>
+      <c r="CD94">
+        <v>40</v>
+      </c>
+      <c r="CE94">
+        <v>40</v>
+      </c>
+      <c r="CF94">
+        <v>40</v>
+      </c>
+      <c r="CG94">
+        <v>40</v>
+      </c>
+      <c r="CH94">
+        <v>40</v>
+      </c>
+      <c r="CI94">
+        <v>40</v>
+      </c>
+      <c r="CJ94">
+        <v>40</v>
+      </c>
+      <c r="CK94">
+        <v>40</v>
+      </c>
+      <c r="CL94">
+        <v>40</v>
+      </c>
+      <c r="CM94">
+        <v>40</v>
+      </c>
+      <c r="CN94">
+        <v>40</v>
+      </c>
+      <c r="CO94">
+        <v>40</v>
+      </c>
+      <c r="CP94">
+        <v>40</v>
+      </c>
+      <c r="CQ94">
+        <v>40</v>
+      </c>
+      <c r="CR94">
+        <v>40</v>
+      </c>
+      <c r="CS94">
+        <v>40</v>
+      </c>
+      <c r="CT94">
+        <v>40</v>
+      </c>
+      <c r="CU94">
+        <v>40</v>
+      </c>
+      <c r="CV94">
+        <v>40</v>
+      </c>
+      <c r="CW94">
+        <v>40</v>
+      </c>
+      <c r="CX94">
+        <v>40</v>
+      </c>
+      <c r="CY94">
+        <v>21</v>
+      </c>
+      <c r="CZ94">
+        <v>40</v>
+      </c>
+      <c r="DA94">
+        <v>21</v>
+      </c>
+      <c r="DB94">
+        <v>40</v>
+      </c>
+      <c r="DC94">
+        <v>40</v>
+      </c>
+      <c r="DD94">
+        <v>40</v>
+      </c>
+      <c r="DE94">
+        <v>40</v>
+      </c>
+      <c r="DF94">
+        <v>40</v>
+      </c>
+      <c r="DG94">
+        <v>40</v>
+      </c>
+      <c r="DH94">
+        <v>40</v>
+      </c>
+      <c r="DI94">
+        <v>40</v>
+      </c>
+      <c r="DJ94">
+        <v>40</v>
+      </c>
+      <c r="DK94">
+        <v>40</v>
+      </c>
+      <c r="DL94">
+        <v>40</v>
+      </c>
+      <c r="DM94">
+        <v>40</v>
+      </c>
+      <c r="DN94">
+        <v>40</v>
+      </c>
+      <c r="DO94">
+        <v>40</v>
+      </c>
+      <c r="DP94">
+        <v>40</v>
+      </c>
+      <c r="DQ94">
+        <v>40</v>
+      </c>
+      <c r="DR94">
+        <v>40</v>
+      </c>
+      <c r="DS94">
+        <v>40</v>
+      </c>
+      <c r="DT94">
+        <v>40</v>
+      </c>
+      <c r="DU94">
+        <v>40</v>
+      </c>
+      <c r="DV94">
+        <v>40</v>
+      </c>
+      <c r="DW94">
+        <v>40</v>
+      </c>
+      <c r="DX94">
+        <v>40</v>
+      </c>
+      <c r="DY94">
+        <v>40</v>
+      </c>
+      <c r="DZ94">
+        <v>40</v>
+      </c>
+      <c r="EA94">
+        <v>40</v>
+      </c>
+      <c r="EB94">
+        <v>40</v>
+      </c>
+      <c r="EC94">
+        <v>40</v>
+      </c>
+      <c r="ED94">
+        <v>40</v>
+      </c>
+      <c r="EE94">
+        <v>40</v>
+      </c>
+      <c r="EF94">
+        <v>40</v>
+      </c>
+      <c r="EG94">
+        <v>40</v>
+      </c>
+      <c r="EH94">
+        <v>40</v>
+      </c>
+      <c r="EI94">
+        <v>40</v>
+      </c>
+      <c r="EJ94">
+        <v>40</v>
+      </c>
+      <c r="EK94">
+        <v>40</v>
+      </c>
+      <c r="EL94">
+        <v>40</v>
+      </c>
+      <c r="EM94">
+        <v>40</v>
+      </c>
+      <c r="EN94">
+        <v>40</v>
+      </c>
+      <c r="EO94">
+        <v>40</v>
+      </c>
+      <c r="EP94">
+        <v>40</v>
+      </c>
+      <c r="EQ94">
+        <v>40</v>
+      </c>
+      <c r="ER94">
+        <v>40</v>
+      </c>
+      <c r="ES94">
+        <v>40</v>
+      </c>
+      <c r="ET94">
+        <v>40</v>
+      </c>
+      <c r="EU94">
+        <v>40</v>
+      </c>
+      <c r="EV94">
+        <v>40</v>
+      </c>
+      <c r="EW94">
+        <v>40</v>
+      </c>
+      <c r="EX94">
+        <v>40</v>
+      </c>
+      <c r="EY94">
+        <v>40</v>
+      </c>
+      <c r="EZ94">
+        <v>40</v>
+      </c>
+      <c r="FA94">
+        <v>40</v>
+      </c>
+      <c r="FB94">
+        <v>40</v>
+      </c>
+      <c r="FC94">
+        <v>40</v>
+      </c>
+      <c r="FD94">
+        <v>40</v>
+      </c>
+      <c r="FE94">
+        <v>40</v>
+      </c>
+      <c r="FF94">
+        <v>40</v>
+      </c>
+      <c r="FG94">
+        <v>40</v>
+      </c>
+      <c r="FH94">
+        <v>40</v>
+      </c>
+      <c r="FI94">
+        <v>40</v>
+      </c>
+      <c r="FJ94">
+        <v>40</v>
+      </c>
+      <c r="FK94">
+        <v>40</v>
+      </c>
+      <c r="FL94">
+        <v>40</v>
+      </c>
+      <c r="FM94">
+        <v>40</v>
+      </c>
+      <c r="FN94">
+        <v>40</v>
+      </c>
+      <c r="FO94">
+        <v>40</v>
+      </c>
+      <c r="FP94">
+        <v>40</v>
+      </c>
+      <c r="FQ94">
+        <v>40</v>
+      </c>
+      <c r="FR94">
+        <v>40</v>
+      </c>
+      <c r="FS94">
+        <v>40</v>
+      </c>
+      <c r="FT94">
+        <v>40</v>
+      </c>
+      <c r="FU94">
+        <v>40</v>
+      </c>
+      <c r="FV94">
+        <v>40</v>
+      </c>
+      <c r="FW94">
+        <v>40</v>
+      </c>
+      <c r="FX94">
+        <v>40</v>
+      </c>
+      <c r="FY94">
+        <v>40</v>
+      </c>
+      <c r="FZ94">
+        <v>63</v>
+      </c>
+      <c r="GA94">
+        <v>63</v>
+      </c>
+      <c r="GB94">
+        <v>40</v>
+      </c>
+      <c r="GC94">
+        <v>40</v>
+      </c>
+      <c r="GD94">
+        <v>40</v>
+      </c>
+      <c r="GE94">
+        <v>40</v>
+      </c>
+      <c r="GF94">
+        <v>40</v>
+      </c>
+      <c r="GG94">
+        <v>40</v>
+      </c>
+      <c r="GH94">
+        <v>40</v>
+      </c>
+      <c r="GI94">
+        <v>40</v>
+      </c>
+      <c r="GJ94">
+        <v>40</v>
+      </c>
+      <c r="GK94">
+        <v>40</v>
+      </c>
+      <c r="GL94">
+        <v>21</v>
+      </c>
+      <c r="GM94">
+        <v>21</v>
+      </c>
+      <c r="GN94">
+        <v>21</v>
+      </c>
+      <c r="GO94">
+        <v>21</v>
+      </c>
+      <c r="GP94">
+        <v>21</v>
+      </c>
+      <c r="GQ94">
+        <v>21</v>
+      </c>
+      <c r="GR94">
+        <v>21</v>
+      </c>
+      <c r="GS94">
+        <v>21</v>
+      </c>
+      <c r="GT94">
+        <v>21</v>
+      </c>
+      <c r="GU94">
+        <v>21</v>
+      </c>
+      <c r="GV94">
+        <v>21</v>
+      </c>
+      <c r="GW94">
+        <v>21</v>
+      </c>
+      <c r="GX94">
+        <v>21</v>
+      </c>
+      <c r="GY94">
+        <v>21</v>
+      </c>
+      <c r="GZ94">
+        <v>21</v>
+      </c>
+      <c r="HA94">
+        <v>21</v>
+      </c>
+      <c r="HB94">
+        <v>21</v>
+      </c>
+      <c r="HC94">
+        <v>21</v>
+      </c>
+      <c r="HD94">
+        <v>21</v>
+      </c>
+      <c r="HE94">
+        <v>21</v>
+      </c>
+      <c r="HF94">
+        <v>21</v>
+      </c>
+      <c r="HG94">
+        <v>21</v>
+      </c>
+      <c r="HH94">
+        <v>21</v>
+      </c>
+      <c r="HI94">
+        <v>21</v>
+      </c>
+      <c r="HJ94">
+        <v>21</v>
+      </c>
+      <c r="HK94">
+        <v>40</v>
+      </c>
+      <c r="HL94">
+        <v>40</v>
+      </c>
+      <c r="HM94">
+        <v>40</v>
+      </c>
+      <c r="HN94">
+        <v>40</v>
+      </c>
+      <c r="HO94">
+        <v>40</v>
+      </c>
+      <c r="HP94">
+        <v>40</v>
+      </c>
+      <c r="HQ94">
+        <v>40</v>
+      </c>
+      <c r="HR94">
+        <v>40</v>
+      </c>
+      <c r="HS94">
+        <v>40</v>
+      </c>
+      <c r="HT94">
+        <v>40</v>
+      </c>
+      <c r="HU94">
+        <v>40</v>
+      </c>
+      <c r="HV94">
+        <v>40</v>
+      </c>
+      <c r="HW94">
+        <v>40</v>
+      </c>
+      <c r="HX94">
+        <v>40</v>
+      </c>
+      <c r="HY94">
+        <v>40</v>
+      </c>
+      <c r="HZ94">
+        <v>40</v>
+      </c>
+      <c r="IA94">
+        <v>40</v>
+      </c>
+      <c r="IB94">
+        <v>40</v>
+      </c>
+      <c r="IC94">
+        <v>40</v>
+      </c>
+      <c r="ID94">
+        <v>40</v>
+      </c>
+      <c r="IE94">
+        <v>40</v>
+      </c>
+      <c r="IF94">
+        <v>40</v>
+      </c>
+      <c r="IG94">
+        <v>40</v>
+      </c>
+      <c r="IH94">
+        <v>40</v>
+      </c>
+      <c r="II94">
+        <v>40</v>
+      </c>
+      <c r="IJ94">
+        <v>40</v>
+      </c>
+      <c r="IK94">
+        <v>40</v>
+      </c>
+      <c r="IL94">
+        <v>40</v>
+      </c>
+      <c r="IM94">
+        <v>40</v>
+      </c>
+      <c r="IN94">
+        <v>40</v>
+      </c>
+      <c r="IO94">
+        <v>40</v>
+      </c>
+      <c r="IP94">
+        <v>40</v>
+      </c>
+      <c r="IQ94">
+        <v>40</v>
+      </c>
+      <c r="IR94">
+        <v>40</v>
+      </c>
+      <c r="IS94">
+        <v>40</v>
+      </c>
+      <c r="IT94">
+        <v>40</v>
+      </c>
+      <c r="IU94">
+        <v>40</v>
+      </c>
+      <c r="IV94">
+        <v>40</v>
+      </c>
+      <c r="IW94">
+        <v>40</v>
+      </c>
+      <c r="IX94">
+        <v>40</v>
+      </c>
+      <c r="IY94">
+        <v>40</v>
+      </c>
+      <c r="IZ94">
+        <v>40</v>
+      </c>
+      <c r="JA94">
+        <v>40</v>
+      </c>
+      <c r="JB94">
+        <v>40</v>
+      </c>
+      <c r="JC94">
+        <v>40</v>
+      </c>
+      <c r="JD94">
+        <v>40</v>
+      </c>
+      <c r="JE94">
+        <v>40</v>
+      </c>
+      <c r="JF94">
+        <v>40</v>
+      </c>
+      <c r="JG94">
+        <v>40</v>
+      </c>
+      <c r="JH94">
+        <v>40</v>
+      </c>
+      <c r="JI94">
+        <v>40</v>
+      </c>
+      <c r="JJ94">
+        <v>40</v>
+      </c>
+      <c r="JK94">
+        <v>40</v>
+      </c>
+      <c r="JL94">
+        <v>40</v>
+      </c>
+      <c r="JM94">
+        <v>40</v>
+      </c>
+      <c r="JN94">
+        <v>40</v>
+      </c>
+      <c r="JO94">
+        <v>40</v>
+      </c>
+      <c r="JP94">
+        <v>40</v>
+      </c>
+      <c r="JQ94">
+        <v>40</v>
+      </c>
+      <c r="JR94">
+        <v>40</v>
+      </c>
+      <c r="JS94">
+        <v>40</v>
+      </c>
+      <c r="JT94">
+        <v>40</v>
+      </c>
+      <c r="JU94">
+        <v>40</v>
+      </c>
+      <c r="JV94">
+        <v>40</v>
+      </c>
+      <c r="JW94">
+        <v>40</v>
+      </c>
+      <c r="JX94">
+        <v>40</v>
+      </c>
+      <c r="JY94">
+        <v>40</v>
+      </c>
+      <c r="JZ94">
+        <v>40</v>
+      </c>
+      <c r="KA94">
+        <v>40</v>
+      </c>
+      <c r="KB94">
+        <v>40</v>
+      </c>
+      <c r="KC94">
+        <v>40</v>
+      </c>
+      <c r="KD94">
+        <v>40</v>
+      </c>
+      <c r="KE94">
+        <v>40</v>
+      </c>
+      <c r="KF94">
+        <v>40</v>
+      </c>
+      <c r="KG94">
+        <v>40</v>
+      </c>
+      <c r="KH94">
+        <v>40</v>
+      </c>
+      <c r="KI94">
+        <v>40</v>
+      </c>
+      <c r="KJ94">
+        <v>40</v>
+      </c>
+      <c r="KK94">
+        <v>40</v>
+      </c>
+      <c r="KL94">
+        <v>40</v>
+      </c>
+      <c r="KM94">
+        <v>40</v>
+      </c>
+      <c r="KN94">
+        <v>40</v>
+      </c>
+      <c r="KO94">
+        <v>40</v>
+      </c>
+      <c r="KP94">
+        <v>40</v>
+      </c>
+      <c r="KQ94">
+        <v>40</v>
+      </c>
+      <c r="KR94">
+        <v>40</v>
+      </c>
+      <c r="KS94">
+        <v>40</v>
+      </c>
+      <c r="KT94">
+        <v>40</v>
+      </c>
+      <c r="KU94">
+        <v>40</v>
+      </c>
+      <c r="KV94">
+        <v>40</v>
+      </c>
+      <c r="KW94">
+        <v>40</v>
+      </c>
+      <c r="KX94">
+        <v>40</v>
+      </c>
+      <c r="KY94">
+        <v>40</v>
+      </c>
+      <c r="KZ94">
+        <v>40</v>
+      </c>
+      <c r="LA94">
+        <v>40</v>
+      </c>
+      <c r="LB94">
+        <v>40</v>
+      </c>
+      <c r="LC94">
+        <v>40</v>
+      </c>
+      <c r="LD94">
+        <v>40</v>
+      </c>
+      <c r="LE94">
+        <v>40</v>
+      </c>
+      <c r="LF94">
+        <v>40</v>
+      </c>
+      <c r="LG94">
+        <v>40</v>
+      </c>
+      <c r="LH94">
+        <v>40</v>
+      </c>
+      <c r="LI94">
+        <v>40</v>
+      </c>
+      <c r="LJ94">
+        <v>40</v>
+      </c>
+      <c r="LK94">
+        <v>40</v>
+      </c>
+      <c r="LL94">
+        <v>40</v>
+      </c>
+      <c r="LM94">
+        <v>40</v>
+      </c>
+      <c r="LN94">
+        <v>40</v>
+      </c>
+      <c r="LO94">
+        <v>40</v>
+      </c>
+      <c r="LP94">
+        <v>40</v>
+      </c>
+      <c r="LQ94">
+        <v>40</v>
+      </c>
+      <c r="LR94">
+        <v>40</v>
+      </c>
+      <c r="LS94">
+        <v>40</v>
+      </c>
+      <c r="LT94">
+        <v>40</v>
+      </c>
+      <c r="LU94">
+        <v>40</v>
+      </c>
+      <c r="LV94">
+        <v>40</v>
+      </c>
+      <c r="LW94">
+        <v>40</v>
+      </c>
+      <c r="LX94">
+        <v>40</v>
+      </c>
+      <c r="LY94">
+        <v>40</v>
+      </c>
+      <c r="LZ94">
+        <v>40</v>
+      </c>
+      <c r="MA94">
+        <v>40</v>
+      </c>
+      <c r="MB94">
+        <v>40</v>
+      </c>
+      <c r="MC94">
+        <v>40</v>
+      </c>
+      <c r="MD94">
+        <v>40</v>
+      </c>
+      <c r="ME94">
+        <v>40</v>
+      </c>
+      <c r="MF94">
+        <v>40</v>
+      </c>
+      <c r="MG94">
+        <v>40</v>
+      </c>
+      <c r="MH94">
+        <v>40</v>
+      </c>
+      <c r="MI94">
+        <v>40</v>
+      </c>
+      <c r="MJ94">
+        <v>40</v>
+      </c>
+      <c r="MK94">
+        <v>40</v>
+      </c>
+      <c r="ML94">
+        <v>40</v>
+      </c>
+      <c r="MM94">
+        <v>40</v>
+      </c>
+      <c r="MN94">
+        <v>40</v>
+      </c>
+      <c r="MO94">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:353" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>446</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>59</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>0</v>
+      </c>
+      <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>0</v>
+      </c>
+      <c r="AO95">
+        <v>0</v>
+      </c>
+      <c r="AP95">
+        <v>0</v>
+      </c>
+      <c r="AQ95">
+        <v>0</v>
+      </c>
+      <c r="AR95">
+        <v>0</v>
+      </c>
+      <c r="AS95">
+        <v>0</v>
+      </c>
+      <c r="AT95">
+        <v>0</v>
+      </c>
+      <c r="AU95">
+        <v>0</v>
+      </c>
+      <c r="AV95">
+        <v>0</v>
+      </c>
+      <c r="AW95">
+        <v>0</v>
+      </c>
+      <c r="AX95">
+        <v>0</v>
+      </c>
+      <c r="AY95">
+        <v>0</v>
+      </c>
+      <c r="AZ95">
+        <v>0</v>
+      </c>
+      <c r="BA95">
+        <v>0</v>
+      </c>
+      <c r="BB95">
+        <v>0</v>
+      </c>
+      <c r="BC95">
+        <v>0</v>
+      </c>
+      <c r="BD95">
+        <v>0</v>
+      </c>
+      <c r="BE95">
+        <v>0</v>
+      </c>
+      <c r="BF95">
+        <v>0</v>
+      </c>
+      <c r="BG95">
+        <v>0</v>
+      </c>
+      <c r="BH95">
+        <v>0</v>
+      </c>
+      <c r="BI95">
+        <v>0</v>
+      </c>
+      <c r="BJ95">
+        <v>0</v>
+      </c>
+      <c r="BK95">
+        <v>0</v>
+      </c>
+      <c r="BL95">
+        <v>0</v>
+      </c>
+      <c r="BM95">
+        <v>0</v>
+      </c>
+      <c r="BN95">
+        <v>0</v>
+      </c>
+      <c r="BO95">
+        <v>0</v>
+      </c>
+      <c r="BP95">
+        <v>0</v>
+      </c>
+      <c r="BQ95">
+        <v>0</v>
+      </c>
+      <c r="BR95">
+        <v>0</v>
+      </c>
+      <c r="BS95">
+        <v>0</v>
+      </c>
+      <c r="BT95">
+        <v>0</v>
+      </c>
+      <c r="BU95">
+        <v>0</v>
+      </c>
+      <c r="BV95">
+        <v>0</v>
+      </c>
+      <c r="BW95">
+        <v>0</v>
+      </c>
+      <c r="BX95">
+        <v>0</v>
+      </c>
+      <c r="BY95">
+        <v>0</v>
+      </c>
+      <c r="BZ95">
+        <v>0</v>
+      </c>
+      <c r="CA95">
+        <v>0</v>
+      </c>
+      <c r="CB95">
+        <v>0</v>
+      </c>
+      <c r="CC95">
+        <v>0</v>
+      </c>
+      <c r="CD95">
+        <v>0</v>
+      </c>
+      <c r="CE95">
+        <v>0</v>
+      </c>
+      <c r="CF95">
+        <v>0</v>
+      </c>
+      <c r="CG95">
+        <v>0</v>
+      </c>
+      <c r="CH95">
+        <v>0</v>
+      </c>
+      <c r="CI95">
+        <v>0</v>
+      </c>
+      <c r="CJ95">
+        <v>0</v>
+      </c>
+      <c r="CK95">
+        <v>0</v>
+      </c>
+      <c r="CL95">
+        <v>0</v>
+      </c>
+      <c r="CM95">
+        <v>0</v>
+      </c>
+      <c r="CN95">
+        <v>0</v>
+      </c>
+      <c r="CO95">
+        <v>0</v>
+      </c>
+      <c r="CP95">
+        <v>0</v>
+      </c>
+      <c r="CQ95">
+        <v>0</v>
+      </c>
+      <c r="CR95">
+        <v>0</v>
+      </c>
+      <c r="CS95">
+        <v>0</v>
+      </c>
+      <c r="CT95">
+        <v>0</v>
+      </c>
+      <c r="CU95">
+        <v>0</v>
+      </c>
+      <c r="CV95">
+        <v>0</v>
+      </c>
+      <c r="CW95">
+        <v>0</v>
+      </c>
+      <c r="CX95">
+        <v>0</v>
+      </c>
+      <c r="CY95">
+        <v>0</v>
+      </c>
+      <c r="CZ95">
+        <v>0</v>
+      </c>
+      <c r="DA95">
+        <v>0</v>
+      </c>
+      <c r="DB95">
+        <v>0</v>
+      </c>
+      <c r="DC95">
+        <v>0</v>
+      </c>
+      <c r="DD95">
+        <v>0</v>
+      </c>
+      <c r="DE95">
+        <v>0</v>
+      </c>
+      <c r="DF95">
+        <v>0</v>
+      </c>
+      <c r="DG95">
+        <v>0</v>
+      </c>
+      <c r="DH95">
+        <v>0</v>
+      </c>
+      <c r="DI95">
+        <v>0</v>
+      </c>
+      <c r="DJ95">
+        <v>0</v>
+      </c>
+      <c r="DK95">
+        <v>0</v>
+      </c>
+      <c r="DL95">
+        <v>0</v>
+      </c>
+      <c r="DM95">
+        <v>0</v>
+      </c>
+      <c r="DN95">
+        <v>0</v>
+      </c>
+      <c r="DO95">
+        <v>0</v>
+      </c>
+      <c r="DP95">
+        <v>0</v>
+      </c>
+      <c r="DQ95">
+        <v>0</v>
+      </c>
+      <c r="DR95">
+        <v>0</v>
+      </c>
+      <c r="DS95">
+        <v>0</v>
+      </c>
+      <c r="DT95">
+        <v>0</v>
+      </c>
+      <c r="DU95">
+        <v>0</v>
+      </c>
+      <c r="DV95">
+        <v>0</v>
+      </c>
+      <c r="DW95">
+        <v>0</v>
+      </c>
+      <c r="DX95">
+        <v>0</v>
+      </c>
+      <c r="DY95">
+        <v>0</v>
+      </c>
+      <c r="DZ95">
+        <v>0</v>
+      </c>
+      <c r="EA95">
+        <v>0</v>
+      </c>
+      <c r="EB95">
+        <v>0</v>
+      </c>
+      <c r="EC95">
+        <v>0</v>
+      </c>
+      <c r="ED95">
+        <v>0</v>
+      </c>
+      <c r="EE95">
+        <v>0</v>
+      </c>
+      <c r="EF95">
+        <v>0</v>
+      </c>
+      <c r="EG95">
+        <v>0</v>
+      </c>
+      <c r="EH95">
+        <v>0</v>
+      </c>
+      <c r="EI95">
+        <v>0</v>
+      </c>
+      <c r="EJ95">
+        <v>0</v>
+      </c>
+      <c r="EK95">
+        <v>0</v>
+      </c>
+      <c r="EL95">
+        <v>0</v>
+      </c>
+      <c r="EM95">
+        <v>0</v>
+      </c>
+      <c r="EN95">
+        <v>0</v>
+      </c>
+      <c r="EO95">
+        <v>0</v>
+      </c>
+      <c r="EP95">
+        <v>0</v>
+      </c>
+      <c r="EQ95">
+        <v>0</v>
+      </c>
+      <c r="ER95">
+        <v>0</v>
+      </c>
+      <c r="ES95">
+        <v>0</v>
+      </c>
+      <c r="ET95">
+        <v>0</v>
+      </c>
+      <c r="EU95">
+        <v>0</v>
+      </c>
+      <c r="EV95">
+        <v>0</v>
+      </c>
+      <c r="EW95">
+        <v>0</v>
+      </c>
+      <c r="EX95">
+        <v>0</v>
+      </c>
+      <c r="EY95">
+        <v>0</v>
+      </c>
+      <c r="EZ95">
+        <v>0</v>
+      </c>
+      <c r="FA95">
+        <v>0</v>
+      </c>
+      <c r="FB95">
+        <v>0</v>
+      </c>
+      <c r="FC95">
+        <v>0</v>
+      </c>
+      <c r="FD95">
+        <v>0</v>
+      </c>
+      <c r="FE95">
+        <v>0</v>
+      </c>
+      <c r="FF95">
+        <v>0</v>
+      </c>
+      <c r="FG95">
+        <v>0</v>
+      </c>
+      <c r="FH95">
+        <v>0</v>
+      </c>
+      <c r="FI95">
+        <v>0</v>
+      </c>
+      <c r="FJ95">
+        <v>0</v>
+      </c>
+      <c r="FK95">
+        <v>0</v>
+      </c>
+      <c r="FL95">
+        <v>0</v>
+      </c>
+      <c r="FM95">
+        <v>0</v>
+      </c>
+      <c r="FN95">
+        <v>0</v>
+      </c>
+      <c r="FO95">
+        <v>0</v>
+      </c>
+      <c r="FP95">
+        <v>0</v>
+      </c>
+      <c r="FQ95">
+        <v>0</v>
+      </c>
+      <c r="FR95">
+        <v>0</v>
+      </c>
+      <c r="FS95">
+        <v>0</v>
+      </c>
+      <c r="FT95">
+        <v>0</v>
+      </c>
+      <c r="FU95">
+        <v>0</v>
+      </c>
+      <c r="FV95">
+        <v>0</v>
+      </c>
+      <c r="FW95">
+        <v>0</v>
+      </c>
+      <c r="FX95">
+        <v>0</v>
+      </c>
+      <c r="FY95">
+        <v>0</v>
+      </c>
+      <c r="FZ95">
+        <v>0</v>
+      </c>
+      <c r="GA95">
+        <v>0</v>
+      </c>
+      <c r="GB95">
+        <v>0</v>
+      </c>
+      <c r="GC95">
+        <v>0</v>
+      </c>
+      <c r="GD95">
+        <v>0</v>
+      </c>
+      <c r="GE95">
+        <v>0</v>
+      </c>
+      <c r="GF95">
+        <v>0</v>
+      </c>
+      <c r="GG95">
+        <v>0</v>
+      </c>
+      <c r="GH95">
+        <v>0</v>
+      </c>
+      <c r="GI95">
+        <v>0</v>
+      </c>
+      <c r="GJ95">
+        <v>0</v>
+      </c>
+      <c r="GK95">
+        <v>0</v>
+      </c>
+      <c r="GL95">
+        <v>0</v>
+      </c>
+      <c r="GM95">
+        <v>0</v>
+      </c>
+      <c r="GN95">
+        <v>0</v>
+      </c>
+      <c r="GO95">
+        <v>0</v>
+      </c>
+      <c r="GP95">
+        <v>0</v>
+      </c>
+      <c r="GQ95">
+        <v>0</v>
+      </c>
+      <c r="GR95">
+        <v>0</v>
+      </c>
+      <c r="GS95">
+        <v>0</v>
+      </c>
+      <c r="GT95">
+        <v>0</v>
+      </c>
+      <c r="GU95">
+        <v>0</v>
+      </c>
+      <c r="GV95">
+        <v>0</v>
+      </c>
+      <c r="GW95">
+        <v>0</v>
+      </c>
+      <c r="GX95">
+        <v>0</v>
+      </c>
+      <c r="GY95">
+        <v>0</v>
+      </c>
+      <c r="GZ95">
+        <v>0</v>
+      </c>
+      <c r="HA95">
+        <v>0</v>
+      </c>
+      <c r="HB95">
+        <v>0</v>
+      </c>
+      <c r="HC95">
+        <v>0</v>
+      </c>
+      <c r="HD95">
+        <v>0</v>
+      </c>
+      <c r="HE95">
+        <v>0</v>
+      </c>
+      <c r="HF95">
+        <v>0</v>
+      </c>
+      <c r="HG95">
+        <v>0</v>
+      </c>
+      <c r="HH95">
+        <v>0</v>
+      </c>
+      <c r="HI95">
+        <v>0</v>
+      </c>
+      <c r="HJ95">
+        <v>0</v>
+      </c>
+      <c r="HK95">
+        <v>0</v>
+      </c>
+      <c r="HL95">
+        <v>0</v>
+      </c>
+      <c r="HM95">
+        <v>0</v>
+      </c>
+      <c r="HN95">
+        <v>0</v>
+      </c>
+      <c r="HO95">
+        <v>0</v>
+      </c>
+      <c r="HP95">
+        <v>0</v>
+      </c>
+      <c r="HQ95">
+        <v>0</v>
+      </c>
+      <c r="HR95">
+        <v>0</v>
+      </c>
+      <c r="HS95">
+        <v>0</v>
+      </c>
+      <c r="HT95">
+        <v>0</v>
+      </c>
+      <c r="HU95">
+        <v>0</v>
+      </c>
+      <c r="HV95">
+        <v>0</v>
+      </c>
+      <c r="HW95">
+        <v>0</v>
+      </c>
+      <c r="HX95">
+        <v>0</v>
+      </c>
+      <c r="HY95">
+        <v>0</v>
+      </c>
+      <c r="HZ95">
+        <v>0</v>
+      </c>
+      <c r="IA95">
+        <v>0</v>
+      </c>
+      <c r="IB95">
+        <v>0</v>
+      </c>
+      <c r="IC95">
+        <v>0</v>
+      </c>
+      <c r="ID95">
+        <v>0</v>
+      </c>
+      <c r="IE95">
+        <v>0</v>
+      </c>
+      <c r="IF95">
+        <v>0</v>
+      </c>
+      <c r="IG95">
+        <v>0</v>
+      </c>
+      <c r="IH95">
+        <v>0</v>
+      </c>
+      <c r="II95">
+        <v>0</v>
+      </c>
+      <c r="IJ95">
+        <v>0</v>
+      </c>
+      <c r="IK95">
+        <v>0</v>
+      </c>
+      <c r="IL95">
+        <v>0</v>
+      </c>
+      <c r="IM95">
+        <v>0</v>
+      </c>
+      <c r="IN95">
+        <v>0</v>
+      </c>
+      <c r="IO95">
+        <v>0</v>
+      </c>
+      <c r="IP95">
+        <v>0</v>
+      </c>
+      <c r="IQ95">
+        <v>0</v>
+      </c>
+      <c r="IR95">
+        <v>0</v>
+      </c>
+      <c r="IS95">
+        <v>0</v>
+      </c>
+      <c r="IT95">
+        <v>0</v>
+      </c>
+      <c r="IU95">
+        <v>0</v>
+      </c>
+      <c r="IV95">
+        <v>0</v>
+      </c>
+      <c r="IW95">
+        <v>0</v>
+      </c>
+      <c r="IX95">
+        <v>0</v>
+      </c>
+      <c r="IY95">
+        <v>0</v>
+      </c>
+      <c r="IZ95">
+        <v>0</v>
+      </c>
+      <c r="JA95">
+        <v>0</v>
+      </c>
+      <c r="JB95">
+        <v>0</v>
+      </c>
+      <c r="JC95">
+        <v>0</v>
+      </c>
+      <c r="JD95">
+        <v>0</v>
+      </c>
+      <c r="JE95">
+        <v>0</v>
+      </c>
+      <c r="JF95">
+        <v>0</v>
+      </c>
+      <c r="JG95">
+        <v>0</v>
+      </c>
+      <c r="JH95">
+        <v>0</v>
+      </c>
+      <c r="JI95">
+        <v>0</v>
+      </c>
+      <c r="JJ95">
+        <v>0</v>
+      </c>
+      <c r="JK95">
+        <v>0</v>
+      </c>
+      <c r="JL95">
+        <v>0</v>
+      </c>
+      <c r="JM95">
+        <v>0</v>
+      </c>
+      <c r="JN95">
+        <v>0</v>
+      </c>
+      <c r="JO95">
+        <v>0</v>
+      </c>
+      <c r="JP95">
+        <v>0</v>
+      </c>
+      <c r="JQ95">
+        <v>0</v>
+      </c>
+      <c r="JR95">
+        <v>0</v>
+      </c>
+      <c r="JS95">
+        <v>0</v>
+      </c>
+      <c r="JT95">
+        <v>0</v>
+      </c>
+      <c r="JU95">
+        <v>0</v>
+      </c>
+      <c r="JV95">
+        <v>0</v>
+      </c>
+      <c r="JW95">
+        <v>0</v>
+      </c>
+      <c r="JX95">
+        <v>0</v>
+      </c>
+      <c r="JY95">
+        <v>0</v>
+      </c>
+      <c r="JZ95">
+        <v>0</v>
+      </c>
+      <c r="KA95">
+        <v>0</v>
+      </c>
+      <c r="KB95">
+        <v>0</v>
+      </c>
+      <c r="KC95">
+        <v>0</v>
+      </c>
+      <c r="KD95">
+        <v>0</v>
+      </c>
+      <c r="KE95">
+        <v>0</v>
+      </c>
+      <c r="KF95">
+        <v>0</v>
+      </c>
+      <c r="KG95">
+        <v>0</v>
+      </c>
+      <c r="KH95">
+        <v>0</v>
+      </c>
+      <c r="KI95">
+        <v>0</v>
+      </c>
+      <c r="KJ95">
+        <v>0</v>
+      </c>
+      <c r="KK95">
+        <v>0</v>
+      </c>
+      <c r="KL95">
+        <v>0</v>
+      </c>
+      <c r="KM95">
+        <v>0</v>
+      </c>
+      <c r="KN95">
+        <v>0</v>
+      </c>
+      <c r="KO95">
+        <v>0</v>
+      </c>
+      <c r="KP95">
+        <v>0</v>
+      </c>
+      <c r="KQ95">
+        <v>0</v>
+      </c>
+      <c r="KR95">
+        <v>0</v>
+      </c>
+      <c r="KS95">
+        <v>0</v>
+      </c>
+      <c r="KT95">
+        <v>0</v>
+      </c>
+      <c r="KU95">
+        <v>0</v>
+      </c>
+      <c r="KV95">
+        <v>0</v>
+      </c>
+      <c r="KW95">
+        <v>0</v>
+      </c>
+      <c r="KX95">
+        <v>0</v>
+      </c>
+      <c r="KY95">
+        <v>0</v>
+      </c>
+      <c r="KZ95">
+        <v>0</v>
+      </c>
+      <c r="LA95">
+        <v>0</v>
+      </c>
+      <c r="LB95">
+        <v>0</v>
+      </c>
+      <c r="LC95">
+        <v>0</v>
+      </c>
+      <c r="LD95">
+        <v>0</v>
+      </c>
+      <c r="LE95">
+        <v>0</v>
+      </c>
+      <c r="LF95">
+        <v>0</v>
+      </c>
+      <c r="LG95">
+        <v>0</v>
+      </c>
+      <c r="LH95">
+        <v>0</v>
+      </c>
+      <c r="LI95">
+        <v>0</v>
+      </c>
+      <c r="LJ95">
+        <v>0</v>
+      </c>
+      <c r="LK95">
+        <v>0</v>
+      </c>
+      <c r="LL95">
+        <v>0</v>
+      </c>
+      <c r="LM95">
+        <v>0</v>
+      </c>
+      <c r="LN95">
+        <v>0</v>
+      </c>
+      <c r="LO95">
+        <v>0</v>
+      </c>
+      <c r="LP95">
+        <v>0</v>
+      </c>
+      <c r="LQ95">
+        <v>0</v>
+      </c>
+      <c r="LR95">
+        <v>0</v>
+      </c>
+      <c r="LS95">
+        <v>0</v>
+      </c>
+      <c r="LT95">
+        <v>0</v>
+      </c>
+      <c r="LU95">
+        <v>0</v>
+      </c>
+      <c r="LV95">
+        <v>0</v>
+      </c>
+      <c r="LW95">
+        <v>0</v>
+      </c>
+      <c r="LX95">
+        <v>0</v>
+      </c>
+      <c r="LY95">
+        <v>0</v>
+      </c>
+      <c r="LZ95">
+        <v>0</v>
+      </c>
+      <c r="MA95">
+        <v>0</v>
+      </c>
+      <c r="MB95">
+        <v>0</v>
+      </c>
+      <c r="MC95">
+        <v>0</v>
+      </c>
+      <c r="MD95">
+        <v>0</v>
+      </c>
+      <c r="ME95">
+        <v>0</v>
+      </c>
+      <c r="MF95">
+        <v>0</v>
+      </c>
+      <c r="MG95">
+        <v>0</v>
+      </c>
+      <c r="MH95">
+        <v>0</v>
+      </c>
+      <c r="MI95">
+        <v>0</v>
+      </c>
+      <c r="MJ95">
+        <v>0</v>
+      </c>
+      <c r="MK95">
+        <v>0</v>
+      </c>
+      <c r="ML95">
+        <v>0</v>
+      </c>
+      <c r="MM95">
+        <v>0</v>
+      </c>
+      <c r="MN95">
+        <v>0</v>
+      </c>
+      <c r="MO95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:353" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>447</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>60</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>0</v>
+      </c>
+      <c r="AO96">
+        <v>0</v>
+      </c>
+      <c r="AP96">
+        <v>0</v>
+      </c>
+      <c r="AQ96">
+        <v>0</v>
+      </c>
+      <c r="AR96">
+        <v>0</v>
+      </c>
+      <c r="AS96">
+        <v>0</v>
+      </c>
+      <c r="AT96">
+        <v>0</v>
+      </c>
+      <c r="AU96">
+        <v>0</v>
+      </c>
+      <c r="AV96">
+        <v>0</v>
+      </c>
+      <c r="AW96">
+        <v>0</v>
+      </c>
+      <c r="AX96">
+        <v>0</v>
+      </c>
+      <c r="AY96">
+        <v>0</v>
+      </c>
+      <c r="AZ96">
+        <v>0</v>
+      </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
+      <c r="BB96">
+        <v>0</v>
+      </c>
+      <c r="BC96">
+        <v>0</v>
+      </c>
+      <c r="BD96">
+        <v>0</v>
+      </c>
+      <c r="BE96">
+        <v>0</v>
+      </c>
+      <c r="BF96">
+        <v>0</v>
+      </c>
+      <c r="BG96">
+        <v>0</v>
+      </c>
+      <c r="BH96">
+        <v>0</v>
+      </c>
+      <c r="BI96">
+        <v>0</v>
+      </c>
+      <c r="BJ96">
+        <v>0</v>
+      </c>
+      <c r="BK96">
+        <v>0</v>
+      </c>
+      <c r="BL96">
+        <v>0</v>
+      </c>
+      <c r="BM96">
+        <v>0</v>
+      </c>
+      <c r="BN96">
+        <v>0</v>
+      </c>
+      <c r="BO96">
+        <v>0</v>
+      </c>
+      <c r="BP96">
+        <v>0</v>
+      </c>
+      <c r="BQ96">
+        <v>0</v>
+      </c>
+      <c r="BR96">
+        <v>0</v>
+      </c>
+      <c r="BS96">
+        <v>0</v>
+      </c>
+      <c r="BT96">
+        <v>0</v>
+      </c>
+      <c r="BU96">
+        <v>0</v>
+      </c>
+      <c r="BV96">
+        <v>0</v>
+      </c>
+      <c r="BW96">
+        <v>0</v>
+      </c>
+      <c r="BX96">
+        <v>0</v>
+      </c>
+      <c r="BY96">
+        <v>0</v>
+      </c>
+      <c r="BZ96">
+        <v>0</v>
+      </c>
+      <c r="CA96">
+        <v>0</v>
+      </c>
+      <c r="CB96">
+        <v>0</v>
+      </c>
+      <c r="CC96">
+        <v>0</v>
+      </c>
+      <c r="CD96">
+        <v>0</v>
+      </c>
+      <c r="CE96">
+        <v>0</v>
+      </c>
+      <c r="CF96">
+        <v>0</v>
+      </c>
+      <c r="CG96">
+        <v>0</v>
+      </c>
+      <c r="CH96">
+        <v>0</v>
+      </c>
+      <c r="CI96">
+        <v>0</v>
+      </c>
+      <c r="CJ96">
+        <v>0</v>
+      </c>
+      <c r="CK96">
+        <v>0</v>
+      </c>
+      <c r="CL96">
+        <v>0</v>
+      </c>
+      <c r="CM96">
+        <v>0</v>
+      </c>
+      <c r="CN96">
+        <v>0</v>
+      </c>
+      <c r="CO96">
+        <v>0</v>
+      </c>
+      <c r="CP96">
+        <v>0</v>
+      </c>
+      <c r="CQ96">
+        <v>0</v>
+      </c>
+      <c r="CR96">
+        <v>0</v>
+      </c>
+      <c r="CS96">
+        <v>0</v>
+      </c>
+      <c r="CT96">
+        <v>0</v>
+      </c>
+      <c r="CU96">
+        <v>0</v>
+      </c>
+      <c r="CV96">
+        <v>0</v>
+      </c>
+      <c r="CW96">
+        <v>0</v>
+      </c>
+      <c r="CX96">
+        <v>0</v>
+      </c>
+      <c r="CY96">
+        <v>0</v>
+      </c>
+      <c r="CZ96">
+        <v>0</v>
+      </c>
+      <c r="DA96">
+        <v>0</v>
+      </c>
+      <c r="DB96">
+        <v>0</v>
+      </c>
+      <c r="DC96">
+        <v>0</v>
+      </c>
+      <c r="DD96">
+        <v>0</v>
+      </c>
+      <c r="DE96">
+        <v>0</v>
+      </c>
+      <c r="DF96">
+        <v>0</v>
+      </c>
+      <c r="DG96">
+        <v>0</v>
+      </c>
+      <c r="DH96">
+        <v>0</v>
+      </c>
+      <c r="DI96">
+        <v>0</v>
+      </c>
+      <c r="DJ96">
+        <v>0</v>
+      </c>
+      <c r="DK96">
+        <v>0</v>
+      </c>
+      <c r="DL96">
+        <v>0</v>
+      </c>
+      <c r="DM96">
+        <v>0</v>
+      </c>
+      <c r="DN96">
+        <v>0</v>
+      </c>
+      <c r="DO96">
+        <v>0</v>
+      </c>
+      <c r="DP96">
+        <v>0</v>
+      </c>
+      <c r="DQ96">
+        <v>0</v>
+      </c>
+      <c r="DR96">
+        <v>0</v>
+      </c>
+      <c r="DS96">
+        <v>0</v>
+      </c>
+      <c r="DT96">
+        <v>0</v>
+      </c>
+      <c r="DU96">
+        <v>0</v>
+      </c>
+      <c r="DV96">
+        <v>0</v>
+      </c>
+      <c r="DW96">
+        <v>0</v>
+      </c>
+      <c r="DX96">
+        <v>0</v>
+      </c>
+      <c r="DY96">
+        <v>0</v>
+      </c>
+      <c r="DZ96">
+        <v>0</v>
+      </c>
+      <c r="EA96">
+        <v>0</v>
+      </c>
+      <c r="EB96">
+        <v>0</v>
+      </c>
+      <c r="EC96">
+        <v>0</v>
+      </c>
+      <c r="ED96">
+        <v>0</v>
+      </c>
+      <c r="EE96">
+        <v>0</v>
+      </c>
+      <c r="EF96">
+        <v>0</v>
+      </c>
+      <c r="EG96">
+        <v>0</v>
+      </c>
+      <c r="EH96">
+        <v>0</v>
+      </c>
+      <c r="EI96">
+        <v>0</v>
+      </c>
+      <c r="EJ96">
+        <v>0</v>
+      </c>
+      <c r="EK96">
+        <v>0</v>
+      </c>
+      <c r="EL96">
+        <v>0</v>
+      </c>
+      <c r="EM96">
+        <v>0</v>
+      </c>
+      <c r="EN96">
+        <v>0</v>
+      </c>
+      <c r="EO96">
+        <v>0</v>
+      </c>
+      <c r="EP96">
+        <v>0</v>
+      </c>
+      <c r="EQ96">
+        <v>0</v>
+      </c>
+      <c r="ER96">
+        <v>0</v>
+      </c>
+      <c r="ES96">
+        <v>0</v>
+      </c>
+      <c r="ET96">
+        <v>0</v>
+      </c>
+      <c r="EU96">
+        <v>0</v>
+      </c>
+      <c r="EV96">
+        <v>0</v>
+      </c>
+      <c r="EW96">
+        <v>0</v>
+      </c>
+      <c r="EX96">
+        <v>0</v>
+      </c>
+      <c r="EY96">
+        <v>0</v>
+      </c>
+      <c r="EZ96">
+        <v>0</v>
+      </c>
+      <c r="FA96">
+        <v>0</v>
+      </c>
+      <c r="FB96">
+        <v>0</v>
+      </c>
+      <c r="FC96">
+        <v>0</v>
+      </c>
+      <c r="FD96">
+        <v>0</v>
+      </c>
+      <c r="FE96">
+        <v>0</v>
+      </c>
+      <c r="FF96">
+        <v>0</v>
+      </c>
+      <c r="FG96">
+        <v>0</v>
+      </c>
+      <c r="FH96">
+        <v>0</v>
+      </c>
+      <c r="FI96">
+        <v>0</v>
+      </c>
+      <c r="FJ96">
+        <v>0</v>
+      </c>
+      <c r="FK96">
+        <v>0</v>
+      </c>
+      <c r="FL96">
+        <v>0</v>
+      </c>
+      <c r="FM96">
+        <v>0</v>
+      </c>
+      <c r="FN96">
+        <v>0</v>
+      </c>
+      <c r="FO96">
+        <v>0</v>
+      </c>
+      <c r="FP96">
+        <v>0</v>
+      </c>
+      <c r="FQ96">
+        <v>0</v>
+      </c>
+      <c r="FR96">
+        <v>0</v>
+      </c>
+      <c r="FS96">
+        <v>0</v>
+      </c>
+      <c r="FT96">
+        <v>0</v>
+      </c>
+      <c r="FU96">
+        <v>0</v>
+      </c>
+      <c r="FV96">
+        <v>0</v>
+      </c>
+      <c r="FW96">
+        <v>0</v>
+      </c>
+      <c r="FX96">
+        <v>0</v>
+      </c>
+      <c r="FY96">
+        <v>0</v>
+      </c>
+      <c r="FZ96">
+        <v>0</v>
+      </c>
+      <c r="GA96">
+        <v>0</v>
+      </c>
+      <c r="GB96">
+        <v>0</v>
+      </c>
+      <c r="GC96">
+        <v>0</v>
+      </c>
+      <c r="GD96">
+        <v>0</v>
+      </c>
+      <c r="GE96">
+        <v>0</v>
+      </c>
+      <c r="GF96">
+        <v>0</v>
+      </c>
+      <c r="GG96">
+        <v>0</v>
+      </c>
+      <c r="GH96">
+        <v>0</v>
+      </c>
+      <c r="GI96">
+        <v>0</v>
+      </c>
+      <c r="GJ96">
+        <v>0</v>
+      </c>
+      <c r="GK96">
+        <v>0</v>
+      </c>
+      <c r="GL96">
+        <v>0</v>
+      </c>
+      <c r="GM96">
+        <v>0</v>
+      </c>
+      <c r="GN96">
+        <v>0</v>
+      </c>
+      <c r="GO96">
+        <v>0</v>
+      </c>
+      <c r="GP96">
+        <v>0</v>
+      </c>
+      <c r="GQ96">
+        <v>0</v>
+      </c>
+      <c r="GR96">
+        <v>0</v>
+      </c>
+      <c r="GS96">
+        <v>0</v>
+      </c>
+      <c r="GT96">
+        <v>0</v>
+      </c>
+      <c r="GU96">
+        <v>0</v>
+      </c>
+      <c r="GV96">
+        <v>0</v>
+      </c>
+      <c r="GW96">
+        <v>0</v>
+      </c>
+      <c r="GX96">
+        <v>0</v>
+      </c>
+      <c r="GY96">
+        <v>0</v>
+      </c>
+      <c r="GZ96">
+        <v>0</v>
+      </c>
+      <c r="HA96">
+        <v>0</v>
+      </c>
+      <c r="HB96">
+        <v>0</v>
+      </c>
+      <c r="HC96">
+        <v>0</v>
+      </c>
+      <c r="HD96">
+        <v>0</v>
+      </c>
+      <c r="HE96">
+        <v>0</v>
+      </c>
+      <c r="HF96">
+        <v>0</v>
+      </c>
+      <c r="HG96">
+        <v>0</v>
+      </c>
+      <c r="HH96">
+        <v>0</v>
+      </c>
+      <c r="HI96">
+        <v>0</v>
+      </c>
+      <c r="HJ96">
+        <v>0</v>
+      </c>
+      <c r="HK96">
+        <v>0</v>
+      </c>
+      <c r="HL96">
+        <v>0</v>
+      </c>
+      <c r="HM96">
+        <v>0</v>
+      </c>
+      <c r="HN96">
+        <v>0</v>
+      </c>
+      <c r="HO96">
+        <v>0</v>
+      </c>
+      <c r="HP96">
+        <v>0</v>
+      </c>
+      <c r="HQ96">
+        <v>0</v>
+      </c>
+      <c r="HR96">
+        <v>0</v>
+      </c>
+      <c r="HS96">
+        <v>0</v>
+      </c>
+      <c r="HT96">
+        <v>0</v>
+      </c>
+      <c r="HU96">
+        <v>0</v>
+      </c>
+      <c r="HV96">
+        <v>0</v>
+      </c>
+      <c r="HW96">
+        <v>0</v>
+      </c>
+      <c r="HX96">
+        <v>0</v>
+      </c>
+      <c r="HY96">
+        <v>0</v>
+      </c>
+      <c r="HZ96">
+        <v>0</v>
+      </c>
+      <c r="IA96">
+        <v>0</v>
+      </c>
+      <c r="IB96">
+        <v>0</v>
+      </c>
+      <c r="IC96">
+        <v>0</v>
+      </c>
+      <c r="ID96">
+        <v>0</v>
+      </c>
+      <c r="IE96">
+        <v>0</v>
+      </c>
+      <c r="IF96">
+        <v>0</v>
+      </c>
+      <c r="IG96">
+        <v>0</v>
+      </c>
+      <c r="IH96">
+        <v>0</v>
+      </c>
+      <c r="II96">
+        <v>0</v>
+      </c>
+      <c r="IJ96">
+        <v>0</v>
+      </c>
+      <c r="IK96">
+        <v>0</v>
+      </c>
+      <c r="IL96">
+        <v>0</v>
+      </c>
+      <c r="IM96">
+        <v>0</v>
+      </c>
+      <c r="IN96">
+        <v>0</v>
+      </c>
+      <c r="IO96">
+        <v>0</v>
+      </c>
+      <c r="IP96">
+        <v>0</v>
+      </c>
+      <c r="IQ96">
+        <v>0</v>
+      </c>
+      <c r="IR96">
+        <v>0</v>
+      </c>
+      <c r="IS96">
+        <v>0</v>
+      </c>
+      <c r="IT96">
+        <v>0</v>
+      </c>
+      <c r="IU96">
+        <v>0</v>
+      </c>
+      <c r="IV96">
+        <v>0</v>
+      </c>
+      <c r="IW96">
+        <v>0</v>
+      </c>
+      <c r="IX96">
+        <v>0</v>
+      </c>
+      <c r="IY96">
+        <v>0</v>
+      </c>
+      <c r="IZ96">
+        <v>0</v>
+      </c>
+      <c r="JA96">
+        <v>0</v>
+      </c>
+      <c r="JB96">
+        <v>0</v>
+      </c>
+      <c r="JC96">
+        <v>0</v>
+      </c>
+      <c r="JD96">
+        <v>0</v>
+      </c>
+      <c r="JE96">
+        <v>0</v>
+      </c>
+      <c r="JF96">
+        <v>0</v>
+      </c>
+      <c r="JG96">
+        <v>0</v>
+      </c>
+      <c r="JH96">
+        <v>0</v>
+      </c>
+      <c r="JI96">
+        <v>0</v>
+      </c>
+      <c r="JJ96">
+        <v>0</v>
+      </c>
+      <c r="JK96">
+        <v>0</v>
+      </c>
+      <c r="JL96">
+        <v>0</v>
+      </c>
+      <c r="JM96">
+        <v>0</v>
+      </c>
+      <c r="JN96">
+        <v>0</v>
+      </c>
+      <c r="JO96">
+        <v>0</v>
+      </c>
+      <c r="JP96">
+        <v>0</v>
+      </c>
+      <c r="JQ96">
+        <v>0</v>
+      </c>
+      <c r="JR96">
+        <v>0</v>
+      </c>
+      <c r="JS96">
+        <v>0</v>
+      </c>
+      <c r="JT96">
+        <v>0</v>
+      </c>
+      <c r="JU96">
+        <v>0</v>
+      </c>
+      <c r="JV96">
+        <v>0</v>
+      </c>
+      <c r="JW96">
+        <v>0</v>
+      </c>
+      <c r="JX96">
+        <v>0</v>
+      </c>
+      <c r="JY96">
+        <v>0</v>
+      </c>
+      <c r="JZ96">
+        <v>0</v>
+      </c>
+      <c r="KA96">
+        <v>0</v>
+      </c>
+      <c r="KB96">
+        <v>0</v>
+      </c>
+      <c r="KC96">
+        <v>0</v>
+      </c>
+      <c r="KD96">
+        <v>0</v>
+      </c>
+      <c r="KE96">
+        <v>0</v>
+      </c>
+      <c r="KF96">
+        <v>0</v>
+      </c>
+      <c r="KG96">
+        <v>0</v>
+      </c>
+      <c r="KH96">
+        <v>0</v>
+      </c>
+      <c r="KI96">
+        <v>0</v>
+      </c>
+      <c r="KJ96">
+        <v>0</v>
+      </c>
+      <c r="KK96">
+        <v>0</v>
+      </c>
+      <c r="KL96">
+        <v>0</v>
+      </c>
+      <c r="KM96">
+        <v>0</v>
+      </c>
+      <c r="KN96">
+        <v>0</v>
+      </c>
+      <c r="KO96">
+        <v>0</v>
+      </c>
+      <c r="KP96">
+        <v>0</v>
+      </c>
+      <c r="KQ96">
+        <v>0</v>
+      </c>
+      <c r="KR96">
+        <v>0</v>
+      </c>
+      <c r="KS96">
+        <v>0</v>
+      </c>
+      <c r="KT96">
+        <v>0</v>
+      </c>
+      <c r="KU96">
+        <v>0</v>
+      </c>
+      <c r="KV96">
+        <v>0</v>
+      </c>
+      <c r="KW96">
+        <v>0</v>
+      </c>
+      <c r="KX96">
+        <v>0</v>
+      </c>
+      <c r="KY96">
+        <v>0</v>
+      </c>
+      <c r="KZ96">
+        <v>0</v>
+      </c>
+      <c r="LA96">
+        <v>0</v>
+      </c>
+      <c r="LB96">
+        <v>0</v>
+      </c>
+      <c r="LC96">
+        <v>0</v>
+      </c>
+      <c r="LD96">
+        <v>0</v>
+      </c>
+      <c r="LE96">
+        <v>0</v>
+      </c>
+      <c r="LF96">
+        <v>0</v>
+      </c>
+      <c r="LG96">
+        <v>0</v>
+      </c>
+      <c r="LH96">
+        <v>0</v>
+      </c>
+      <c r="LI96">
+        <v>0</v>
+      </c>
+      <c r="LJ96">
+        <v>0</v>
+      </c>
+      <c r="LK96">
+        <v>0</v>
+      </c>
+      <c r="LL96">
+        <v>0</v>
+      </c>
+      <c r="LM96">
+        <v>0</v>
+      </c>
+      <c r="LN96">
+        <v>0</v>
+      </c>
+      <c r="LO96">
+        <v>0</v>
+      </c>
+      <c r="LP96">
+        <v>0</v>
+      </c>
+      <c r="LQ96">
+        <v>0</v>
+      </c>
+      <c r="LR96">
+        <v>0</v>
+      </c>
+      <c r="LS96">
+        <v>0</v>
+      </c>
+      <c r="LT96">
+        <v>0</v>
+      </c>
+      <c r="LU96">
+        <v>0</v>
+      </c>
+      <c r="LV96">
+        <v>0</v>
+      </c>
+      <c r="LW96">
+        <v>0</v>
+      </c>
+      <c r="LX96">
+        <v>0</v>
+      </c>
+      <c r="LY96">
+        <v>0</v>
+      </c>
+      <c r="LZ96">
+        <v>0</v>
+      </c>
+      <c r="MA96">
+        <v>0</v>
+      </c>
+      <c r="MB96">
+        <v>0</v>
+      </c>
+      <c r="MC96">
+        <v>0</v>
+      </c>
+      <c r="MD96">
+        <v>0</v>
+      </c>
+      <c r="ME96">
+        <v>0</v>
+      </c>
+      <c r="MF96">
+        <v>0</v>
+      </c>
+      <c r="MG96">
+        <v>0</v>
+      </c>
+      <c r="MH96">
+        <v>0</v>
+      </c>
+      <c r="MI96">
+        <v>0</v>
+      </c>
+      <c r="MJ96">
+        <v>0</v>
+      </c>
+      <c r="MK96">
+        <v>0</v>
+      </c>
+      <c r="ML96">
+        <v>0</v>
+      </c>
+      <c r="MM96">
+        <v>0</v>
+      </c>
+      <c r="MN96">
+        <v>0</v>
+      </c>
+      <c r="MO96">
         <v>0</v>
       </c>
     </row>
